--- a/data/trans_orig/IP31A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP31A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F047C9B7-8E87-44DB-AC65-7766E1A98950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B181FC77-A66D-45CF-BC05-B91E4F652CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E21B7E7F-F40B-45AA-A9D6-C850395C5476}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D227ED2-188A-4A5A-AC63-D126697B6372}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="444">
   <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2007 (Tasa respuesta: 84,41%)</t>
   </si>
@@ -109,1255 +109,1267 @@
     <t>20,14%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
   </si>
   <si>
     <t>44,17%</t>
   </si>
   <si>
-    <t>37,78%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
   </si>
   <si>
     <t>50,73%</t>
   </si>
   <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>Menores según el número de vasos de leche consumidos por día en 2016 (Tasa respuesta: 83,07%)</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>55,6%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB12654B-CFF0-453E-9877-F8549E35AFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE906C5A-1240-43A8-9435-5520AD9A24B3}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2840,10 +2852,10 @@
         <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2923,13 @@
         <v>145519</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>136</v>
@@ -2926,13 +2938,13 @@
         <v>90618</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>354</v>
@@ -2941,13 +2953,13 @@
         <v>236137</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2974,13 @@
         <v>310992</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>443</v>
@@ -2977,13 +2989,13 @@
         <v>296824</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>915</v>
@@ -2992,13 +3004,13 @@
         <v>607816</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3025,13 @@
         <v>137614</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>240</v>
@@ -3028,13 +3040,13 @@
         <v>162624</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -3043,13 +3055,13 @@
         <v>300239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3076,13 @@
         <v>20830</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H27" s="7">
         <v>32</v>
@@ -3079,13 +3091,13 @@
         <v>21052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M27" s="7">
         <v>64</v>
@@ -3094,13 +3106,13 @@
         <v>41882</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3168,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3176,7 +3188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2B90FD-D351-43CD-8BBF-3E4F163B6C2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CAF34F-B4F1-422C-8DBB-0C6928DA7E18}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3193,7 +3205,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3547,13 +3559,13 @@
         <v>10167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -3562,13 +3574,13 @@
         <v>9795</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -3577,13 +3589,13 @@
         <v>19963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3610,13 @@
         <v>40720</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3613,13 +3625,13 @@
         <v>36426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -3628,13 +3640,13 @@
         <v>77146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3661,13 @@
         <v>22200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -3664,13 +3676,13 @@
         <v>19882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -3679,13 +3691,13 @@
         <v>42082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3712,13 @@
         <v>3605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -3715,13 +3727,13 @@
         <v>9260</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -3730,13 +3742,13 @@
         <v>12865</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3816,13 @@
         <v>92261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>92</v>
@@ -3819,13 +3831,13 @@
         <v>63682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>221</v>
@@ -3834,13 +3846,13 @@
         <v>155943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3867,13 @@
         <v>217215</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H15" s="7">
         <v>265</v>
@@ -3870,13 +3882,13 @@
         <v>182624</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M15" s="7">
         <v>579</v>
@@ -3885,13 +3897,13 @@
         <v>399840</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3918,13 @@
         <v>86164</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>145</v>
@@ -3921,13 +3933,13 @@
         <v>100880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>270</v>
@@ -3936,13 +3948,13 @@
         <v>187044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3969,13 @@
         <v>16447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -3972,13 +3984,13 @@
         <v>23615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -3987,13 +3999,13 @@
         <v>40062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4073,13 @@
         <v>30041</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -4076,13 +4088,13 @@
         <v>14816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -4091,13 +4103,13 @@
         <v>44857</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4124,13 @@
         <v>78591</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>109</v>
@@ -4127,13 +4139,13 @@
         <v>76530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>224</v>
@@ -4142,13 +4154,13 @@
         <v>155122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4175,13 @@
         <v>33648</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -4178,13 +4190,13 @@
         <v>44067</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>109</v>
@@ -4193,13 +4205,13 @@
         <v>77715</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4226,13 @@
         <v>5116</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -4229,13 +4241,13 @@
         <v>5850</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4244,13 +4256,13 @@
         <v>10966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4330,13 @@
         <v>132469</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -4333,13 +4345,13 @@
         <v>88293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M24" s="7">
         <v>311</v>
@@ -4348,13 +4360,13 @@
         <v>220762</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4381,13 @@
         <v>337168</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H25" s="7">
         <v>427</v>
@@ -4384,13 +4396,13 @@
         <v>295580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>912</v>
@@ -4399,13 +4411,13 @@
         <v>632748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4432,13 @@
         <v>142012</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -4435,13 +4447,13 @@
         <v>164829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>441</v>
@@ -4450,13 +4462,13 @@
         <v>306841</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4483,13 @@
         <v>25169</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H27" s="7">
         <v>56</v>
@@ -4486,13 +4498,13 @@
         <v>38724</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M27" s="7">
         <v>92</v>
@@ -4501,13 +4513,13 @@
         <v>63893</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>125</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4575,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4583,7 +4595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AE77E9-C5DD-4399-86D2-8FAB6DE5E7D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4349EC-D5EE-4ED0-AFD0-E81DE8D3B7CD}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4600,7 +4612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4934,13 +4946,13 @@
         <v>2278</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4949,13 +4961,13 @@
         <v>2885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -4967,10 +4979,10 @@
         <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4997,13 @@
         <v>35844</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -5000,13 +5012,13 @@
         <v>24164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -5015,13 +5027,13 @@
         <v>60009</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5048,13 @@
         <v>19292</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -5051,13 +5063,13 @@
         <v>15785</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -5066,13 +5078,13 @@
         <v>35077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5099,13 @@
         <v>2693</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5102,13 +5114,13 @@
         <v>5995</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
@@ -5117,13 +5129,13 @@
         <v>8688</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5203,13 @@
         <v>57635</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>72</v>
@@ -5206,13 +5218,13 @@
         <v>45696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>154</v>
@@ -5221,13 +5233,13 @@
         <v>103331</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5254,13 @@
         <v>223160</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H15" s="7">
         <v>317</v>
@@ -5257,13 +5269,13 @@
         <v>211670</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -5272,13 +5284,13 @@
         <v>434831</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5305,13 @@
         <v>104580</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>157</v>
@@ -5308,13 +5320,13 @@
         <v>105105</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>305</v>
@@ -5323,13 +5335,13 @@
         <v>209685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5356,13 @@
         <v>27689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -5359,13 +5371,13 @@
         <v>31425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5374,13 +5386,13 @@
         <v>59114</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5460,13 @@
         <v>24383</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5463,13 +5475,13 @@
         <v>11576</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5478,13 +5490,13 @@
         <v>35959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>29</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5511,13 @@
         <v>74823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>108</v>
@@ -5514,13 +5526,13 @@
         <v>74391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>216</v>
@@ -5529,13 +5541,13 @@
         <v>149213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5562,13 @@
         <v>40613</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -5565,13 +5577,13 @@
         <v>38126</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M21" s="7">
         <v>118</v>
@@ -5580,13 +5592,13 @@
         <v>78739</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>401</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5613,13 @@
         <v>11601</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>396</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>397</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -5616,13 +5628,13 @@
         <v>15177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>29</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5631,13 +5643,13 @@
         <v>26777</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5717,13 @@
         <v>84296</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -5720,13 +5732,13 @@
         <v>60156</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M24" s="7">
         <v>217</v>
@@ -5735,13 +5747,13 @@
         <v>144452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5768,13 @@
         <v>333828</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H25" s="7">
         <v>461</v>
@@ -5771,13 +5783,13 @@
         <v>310225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M25" s="7">
         <v>940</v>
@@ -5786,13 +5798,13 @@
         <v>644053</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5819,13 @@
         <v>164485</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>239</v>
@@ -5822,13 +5834,13 @@
         <v>159016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>426</v>
+        <v>262</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>474</v>
@@ -5837,13 +5849,13 @@
         <v>323501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5870,13 @@
         <v>41982</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H27" s="7">
         <v>78</v>
@@ -5873,13 +5885,13 @@
         <v>52596</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M27" s="7">
         <v>135</v>
@@ -5888,13 +5900,13 @@
         <v>94579</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,7 +5962,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
